--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -422,75 +422,75 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>HSI.HI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>恒生指数</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HSI.HI</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>可选消费</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>000905.SH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>可选消费</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000905.SH</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -541,7 +541,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -583,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -781,15 +781,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>SPX.GI</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>000993.SH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>全指信息</t>
         </is>
@@ -806,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,49 +851,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPX.GI</t>
+          <t>NDX.GI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>纳斯达克100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NDX.GI</t>
+          <t>000932.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>纳斯达克100</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-12-09</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000932.SH</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>中证消费</t>
         </is>

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -449,7 +449,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>可选消费</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -422,7 +422,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -490,75 +490,75 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HSCEI.HI</t>
+          <t>000827.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恒生国企</t>
+          <t>中证环保</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000827.SH</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000991.SH</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>HSCEI.HI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>恒生国企</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -583,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,7 +611,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -781,32 +781,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPX.GI</t>
+          <t>000993.SH</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
-        <is>
-          <t>标普500</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000993.SH</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>全指信息</t>
         </is>
@@ -823,7 +806,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,32 +834,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NDX.GI</t>
+          <t>SPX.GI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>纳斯达克100</t>
+          <t>标普500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>NDX.GI</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>纳斯达克100</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>000932.SH</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>中证消费</t>
         </is>

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,92 +405,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSPSADRP.CI</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HSI.HI</t>
+          <t>000905.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>全指可选</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000905.SH</t>
+          <t>HSI.HI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>恒生指数</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>CSPSADRP.CI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>标普红利</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -541,32 +541,15 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HSCEI.HI</t>
+          <t>399967.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
-        <is>
-          <t>恒生国企</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>399967.SZ</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>中证军工</t>
         </is>
@@ -583,7 +566,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,58 +594,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>HSCEI.HI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>恒生国企</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>399975.CSI</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -679,7 +662,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -696,100 +679,117 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000016.SH</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>399975.CSI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>证券公司</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>000016.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>399001.SZ</t>
+          <t>399330.SZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>深证100</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399001.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>399006.SZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创业板指</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>000993.SH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>全指信息</t>
         </is>
@@ -834,7 +834,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -422,7 +422,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -507,41 +507,41 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000991.SH</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -611,177 +611,177 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399005.SZ</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中小板指</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>399005.SZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>中小板指</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>399975.CSI</t>
+          <t>000016.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000016.SH</t>
+          <t>399001.SZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>399975.CSI</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>证券公司</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399001.SZ</t>
+          <t>399006.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399330.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,92 +405,92 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>CSPSADRP.CI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>全指可选</t>
+          <t>标普红利</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000905.SH</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>000905.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HSI.HI</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CSPSADRP.CI</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -507,49 +507,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000991.SH</t>
+          <t>399967.SZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2019-12-16</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>399967.SZ</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>中证军工</t>
         </is>
@@ -566,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,7 +577,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -611,41 +594,41 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>HSI.HI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>恒生指数</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -662,7 +645,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -679,7 +662,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -696,7 +679,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -713,83 +696,100 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>399001.SZ</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>399975.CSI</t>
+          <t>399001.SZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399975.CSI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>证券公司</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>399006.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>399330.SZ</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>深证100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>000993.SH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>全指信息</t>
         </is>
@@ -834,7 +834,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,34 +851,34 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NDX.GI</t>
+          <t>000932.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>纳斯达克100</t>
+          <t>中证消费</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000932.SH</t>
+          <t>NDX.GI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证消费</t>
+          <t>纳斯达克100</t>
         </is>
       </c>
     </row>

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -422,7 +422,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,75 +611,75 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>399005.SZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中小板指</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399005.SZ</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中小板指</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -730,58 +730,58 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399975.CSI</t>
+          <t>399006.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399330.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>399975.CSI</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>证券公司</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,7 +405,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -422,7 +422,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -439,7 +439,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -456,7 +456,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -473,7 +473,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -507,7 +507,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -524,7 +524,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,7 +611,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -662,7 +662,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -679,7 +679,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -713,7 +713,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -730,58 +730,58 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399975.CSI</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>证券公司</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>399006.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>399975.CSI</t>
+          <t>399330.SZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>深证100</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,126 +405,126 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSPSADRP.CI</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>000905.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>全指可选</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000905.SH</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>CSPSADRP.CI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>标普红利</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>000827.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>中证环保</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000827.SH</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000991.SH</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,126 +594,126 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSI.HI</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>399005.SZ</t>
+          <t>HSI.HI</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中小板指</t>
+          <t>恒生指数</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>000016.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000016.SH</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>399005.SZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>中小板指</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -834,41 +834,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPX.GI</t>
+          <t>000932.SH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>中证消费</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000932.SH</t>
+          <t>SPX.GI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中证消费</t>
+          <t>标普500</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-19</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,126 +405,126 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>000905.SH</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>全指可选</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000905.SH</t>
+          <t>CSPSADRP.CI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>标普红利</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CSPSADRP.CI</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000827.SH</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000991.SH</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>000827.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>中证环保</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -577,7 +577,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,126 +594,126 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>HSI.HI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>恒生指数</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HSI.HI</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000016.SH</t>
+          <t>399005.SZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中小板指</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>399005.SZ</t>
+          <t>000016.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中小板指</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -730,7 +730,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -781,7 +781,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -851,7 +851,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2019-12-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -388,7 +388,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -405,126 +405,126 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000905.SH</t>
+          <t>CSPSADRP.CI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>标普红利</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSPSADRP.CI</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>000905.SH</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>全指可选</t>
+          <t>中证500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000991.SH</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>000827.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>中证环保</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000827.SH</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -549,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,7 +577,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -594,7 +594,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -611,109 +611,109 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>399005.SZ</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中小板指</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399005.SZ</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中小板指</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>000016.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000016.SH</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -730,66 +730,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399975.CSI</t>
+          <t>399006.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399330.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证100</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>000932.SH</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>中证消费</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>399975.CSI</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>证券公司</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2019-12-26</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>000993.SH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>全指信息</t>
         </is>
@@ -806,7 +823,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -834,49 +851,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000932.SH</t>
+          <t>SPX.GI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中证消费</t>
+          <t>标普500</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-24</t>
+          <t>2019-12-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPX.GI</t>
+          <t>NDX.GI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>标普500</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2019-12-24</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>NDX.GI</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>纳斯达克100</t>
         </is>

--- a/datas/指数分组.xlsx
+++ b/datas/指数分组.xlsx
@@ -360,7 +360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,58 +388,58 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000922.CSI</t>
+          <t>399986.CSI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证银行</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSPSADRP.CI</t>
+          <t>000922.CSI</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>中证红利</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000989.SH</t>
+          <t>CSPSADRP.CI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>全指可选</t>
+          <t>标普红利</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -456,85 +456,51 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000852.SH</t>
+          <t>000989.SH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>全指可选</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399986.CSI</t>
+          <t>000991.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>全指医药</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000827.SH</t>
+          <t>000852.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中证环保</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000991.SH</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>399967.SZ</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中证军工</t>
+          <t>中证1000</t>
         </is>
       </c>
     </row>
@@ -549,7 +515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,211 +543,211 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HSCEI.HI</t>
+          <t>000827.SH</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>恒生国企</t>
+          <t>中证环保</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>HSI.HI</t>
+          <t>399967.SZ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>恒生指数</t>
+          <t>中证军工</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000300.SH</t>
+          <t>HSCEI.HI</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>恒生国企</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>399812.SZ</t>
+          <t>HSI.HI</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>恒生指数</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>399005.SZ</t>
+          <t>000016.SH</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中小板指</t>
+          <t>上证50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>399971.SZ</t>
+          <t>000903.SH</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证100</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000016.SH</t>
+          <t>000300.SH</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>沪深300</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000903.SH</t>
+          <t>399812.SZ</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中证100</t>
+          <t>养老产业</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>399001.SZ</t>
+          <t>399005.SZ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>深证成指</t>
+          <t>中小板指</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>399006.SZ</t>
+          <t>399001.SZ</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>深证成指</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>399330.SZ</t>
+          <t>399971.SZ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>深证100</t>
+          <t>中证传媒</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000932.SH</t>
+          <t>399006.SZ</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中证消费</t>
+          <t>创业板指</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -792,23 +758,6 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>证券公司</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2019-12-26</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>000993.SH</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>全指信息</t>
         </is>
       </c>
     </row>
@@ -823,7 +772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,34 +800,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SPX.GI</t>
+          <t>399330.SZ</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>标普500</t>
+          <t>深证100</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2019-12-26</t>
+          <t>2020-01-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>000932.SH</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中证消费</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SPX.GI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>标普500</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>NDX.GI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>纳斯达克100</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-01-16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000993.SH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>全指信息</t>
         </is>
       </c>
     </row>
